--- a/数据整理/stocks/A股/创业板/300433-蓝思科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300433-蓝思科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5194,7 +5195,6 @@
           <t>东吴移动互联灵活配置混合C</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
           <t>93.58</t>
@@ -5226,7 +5226,6 @@
           <t>九泰锐丰灵活配置混合（LOF）C</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
           <t>94.44</t>
@@ -5242,6 +5241,1920 @@
       </c>
       <c r="H63" t="n">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>171.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5871</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6768</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>62.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9444</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>377240</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>65.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8667</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1919</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2977</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1680</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0904</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0268</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0049</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>37.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9932</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010892</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银证券精选行业股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8192</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6331</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501095</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6323</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5795</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5348</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.44</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5126</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4503</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2972</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2952</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.51</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>26.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2164</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010137</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003373</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1324</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009640</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银证券优选行业龙头混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1212</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>580002</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001322</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东吴新趋势价值线灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>960007</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合H</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007685</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华商电子行业量化股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>28.85</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>673050</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>西部利得新盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003374</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011429</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>前海开源民裕进取混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>34.92</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>26.49</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>168104</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>九泰锐丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>70.80</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001323</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009641</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中银证券优选行业龙头混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010893</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中银证券精选行业股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>70.80</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011588</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>前海开源成份精选混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>33.94</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010138</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002170</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011241</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>168111</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>九泰锐丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300433-蓝思科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300433-蓝思科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7160,4 +7161,856 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>64.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0893</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>80.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9756</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>51.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1012</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3323</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8898</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8709</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8541</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7842</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7364</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3832</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2884</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2868</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1630</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1544</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>168104</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>九泰锐丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011000</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>168111</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>九泰锐丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300433-蓝思科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300433-蓝思科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8013,4 +8014,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>49</v>
+      </c>
+      <c r="D3" t="n">
+        <v>29.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>62</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>62</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27.31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300433-蓝思科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300433-蓝思科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8022,7 +8023,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8033,17 +8034,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8053,14 +8074,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.1</v>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2306</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -8069,14 +8112,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>49</v>
-      </c>
-      <c r="D3" t="n">
-        <v>29.61</v>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7060</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -8085,14 +8150,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>62</v>
-      </c>
-      <c r="D4" t="n">
-        <v>38.7</v>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6700</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -8101,13 +8188,797 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6010</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009986</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5095</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4308</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3315</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3072</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2142</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2116</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159786</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华中证虚拟现实主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001135</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>益民品质升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009987</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161816</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华中证等权重90指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>63.75</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011000</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>49</v>
+      </c>
+      <c r="D4" t="n">
+        <v>29.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>62</v>
       </c>
       <c r="D5" t="n">
+        <v>38.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>62</v>
+      </c>
+      <c r="D6" t="n">
         <v>27.31</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300433-蓝思科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300433-蓝思科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8877,7 +8878,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8888,17 +8889,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8908,14 +8929,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.52</v>
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1584</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -8924,14 +8967,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>15.1</v>
+        <v>7.52</v>
       </c>
     </row>
     <row r="4">
@@ -8940,14 +9073,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>29.61</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="5">
@@ -8956,14 +9089,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D5" t="n">
-        <v>38.7</v>
+        <v>29.61</v>
       </c>
     </row>
     <row r="6">
@@ -8972,13 +9105,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>62</v>
       </c>
       <c r="D6" t="n">
+        <v>38.7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>62</v>
+      </c>
+      <c r="D7" t="n">
         <v>27.31</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300433-蓝思科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300433-蓝思科技.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>7.52</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>15.1</v>
+        <v>7.52</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>29.61</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D6" t="n">
-        <v>38.7</v>
+        <v>29.61</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>62</v>
       </c>
       <c r="D7" t="n">
+        <v>38.7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>62</v>
+      </c>
+      <c r="D8" t="n">
         <v>27.31</v>
       </c>
     </row>
@@ -639,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011157</t>
+          <t>001724</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>弘毅远方港股通智选领航混合A</t>
+          <t>申万菱信多策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.19</t>
+          <t>23.23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1584</t>
+          <t>0.0032</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011158</t>
+          <t>001148</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>弘毅远方港股通智选领航混合C</t>
+          <t>申万菱信多策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.19</t>
+          <t>23.23</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0341</t>
+          <t>0.0009</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -720,7 +737,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,36 +788,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011531</t>
+          <t>011157</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>朱雀恒心一年持有期混合</t>
+          <t>弘毅远方港股通智选领航混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.24</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>90.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.2306</t>
+          <t>0.1584</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -809,758 +826,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010922</t>
+          <t>011158</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>朱雀匠心一年持有期混合</t>
+          <t>弘毅远方港股通智选领航混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>25.58</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>90.19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7060</t>
+          <t>0.0341</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007494</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>朱雀产业臻选混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17.18</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6700</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010141</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>朱雀企业优选股票A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>18.55</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.28</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.6010</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009986</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>天弘创新领航混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>13.66</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5095</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>112002</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>易方达策略成长二号混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>11.77</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4308</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007493</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>朱雀产业臻选混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8.50</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3315</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008294</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>朱雀企业优胜股票A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.61</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3072</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
         <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010142</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>朱雀企业优选股票C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>6.61</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.28</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2142</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>007880</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>朱雀产业智选混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2116</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008295</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>朱雀企业优胜股票C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.61</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0983</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>159786</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>银华中证虚拟现实主题交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>97.45</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0636</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>007881</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>朱雀产业智选混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0379</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001135</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>益民品质升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>89.34</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0273</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009987</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>天弘创新领航混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0220</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>400023</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>东方多策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.35</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0183</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002068</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>东方多策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.35</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0172</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>161816</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>银华中证等权重90指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>92.47</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0113</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>008890</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中邮价值优选一年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>63.75</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0071</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>010999</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>兴华瑞丰混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>29.82</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>011000</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>兴华瑞丰混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>29.82</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1595,7 +890,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1625,36 +920,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007493</t>
+          <t>011531</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>朱雀产业臻选混合A</t>
+          <t>朱雀恒心一年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>64.63</t>
+          <t>90.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.51</t>
+          <t>93.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.0893</t>
+          <t>3.2306</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1663,36 +958,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011531</t>
+          <t>010922</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>朱雀恒心一年持有期混合</t>
+          <t>朱雀匠心一年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>80.64</t>
+          <t>25.58</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.89</t>
+          <t>94.55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.9756</t>
+          <t>0.7060</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1701,36 +996,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010141</t>
+          <t>007494</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>朱雀企业优选股票A</t>
+          <t>朱雀产业臻选混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>51.50</t>
+          <t>17.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.1012</t>
+          <t>0.6700</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1739,36 +1034,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007490</t>
+          <t>010141</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方信息创新混合A</t>
+          <t>朱雀企业优选股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>29.09</t>
+          <t>18.55</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.52</t>
+          <t>94.28</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.3323</t>
+          <t>0.6010</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1777,36 +1072,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010922</t>
+          <t>009986</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>朱雀匠心一年持有期混合</t>
+          <t>天弘创新领航混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>25.79</t>
+          <t>13.66</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>93.87</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.8898</t>
+          <t>0.5095</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1815,32 +1110,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007494</t>
+          <t>112002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>朱雀产业臻选混合C</t>
+          <t>易方达策略成长二号混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>18.22</t>
+          <t>11.77</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.51</t>
+          <t>93.99</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.8709</t>
+          <t>0.4308</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1853,36 +1148,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>160607</t>
+          <t>007493</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鹏华价值优势混合(LOF)</t>
+          <t>朱雀产业臻选混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>18.29</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.62</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.8541</t>
+          <t>0.3315</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1891,36 +1186,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010490</t>
+          <t>008294</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鹏华高质量增长混合A</t>
+          <t>朱雀企业优胜股票A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>17.35</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>93.61</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.7842</t>
+          <t>0.3072</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1929,36 +1224,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008294</t>
+          <t>010142</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>朱雀企业优胜股票A</t>
+          <t>朱雀企业优选股票C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>17.45</t>
+          <t>6.61</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>94.28</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.7364</t>
+          <t>0.2142</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1977,22 +1272,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7.19</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.11</t>
+          <t>93.51</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.3832</t>
+          <t>0.2116</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -2005,36 +1300,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>206002</t>
+          <t>008295</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>鹏华精选成长混合</t>
+          <t>朱雀企业优胜股票C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.53</t>
+          <t>93.61</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.2884</t>
+          <t>0.0983</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -2043,36 +1338,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010142</t>
+          <t>159786</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>朱雀企业优选股票C</t>
+          <t>银华中证虚拟现实主题交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>97.45</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.2868</t>
+          <t>0.0636</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -2081,36 +1376,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007491</t>
+          <t>007881</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>南方信息创新混合C</t>
+          <t>朱雀产业智选混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>91.52</t>
+          <t>93.51</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1630</t>
+          <t>0.0379</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -2119,36 +1414,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006976</t>
+          <t>001135</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鹏华核心优势混合</t>
+          <t>益民品质升级灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>89.34</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1544</t>
+          <t>0.0273</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -2157,36 +1452,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>008295</t>
+          <t>009987</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>朱雀企业优胜股票C</t>
+          <t>天弘创新领航混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>93.87</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0827</t>
+          <t>0.0220</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -2195,32 +1490,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>007881</t>
+          <t>400023</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>朱雀产业智选混合C</t>
+          <t>东方多策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>92.11</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0602</t>
+          <t>0.0183</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -2233,36 +1528,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>168104</t>
+          <t>002068</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>九泰锐丰灵活配置混合（LOF）A</t>
+          <t>东方多策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>81.31</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0285</t>
+          <t>0.0172</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -2271,36 +1566,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010491</t>
+          <t>161816</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>鹏华高质量增长混合C</t>
+          <t>银华中证等权重90指数（LOF）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>92.47</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0172</t>
+          <t>0.0113</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -2309,36 +1604,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>010999</t>
+          <t>008890</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>兴华瑞丰混合A</t>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>29.38</t>
+          <t>63.75</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0016</t>
+          <t>0.0071</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -2347,36 +1642,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>011000</t>
+          <t>010999</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>兴华瑞丰混合C</t>
+          <t>兴华瑞丰混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>29.38</t>
+          <t>29.82</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0011</t>
+          <t>0.0007</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2385,34 +1680,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>168111</t>
+          <t>011000</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>九泰锐丰灵活配置混合（LOF）C</t>
+          <t>兴华瑞丰混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>81.31</t>
+          <t>29.82</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2421,6 +1718,858 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>64.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0893</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>80.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9756</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>51.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1012</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3323</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8898</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8709</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8541</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7842</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7364</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3832</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2884</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2868</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1630</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1544</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>168104</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>九泰锐丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011000</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>168111</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>九泰锐丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4327,2404 +4476,6 @@
       </c>
       <c r="H50" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H63"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>515050</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏中证5G通信主题ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>185.08</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.97</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6.7739</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007493</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>朱雀产业臻选混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>77.58</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.09</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.8635</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002351</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达裕祥回报债券</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>341.29</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>20.12</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>3.3105</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>377240</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>上投摩根新兴动力混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>53.91</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.83</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.9866</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010141</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>朱雀企业优选股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>61.49</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.45</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2.5887</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007490</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>南方信息创新混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>39.49</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.43</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2.4247</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010894</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华汇智优选混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>113.82</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>47.04</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.7301</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>159994</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>银华中证5G通信主题ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>44.22</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>97.68</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.5742</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010490</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>鹏华高质量增长混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>25.56</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.14</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.3061</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>007494</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>朱雀产业臻选混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>23.94</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.09</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1.1922</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>160607</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>鹏华价值优势混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>20.85</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1.1530</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008294</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>朱雀企业优胜股票A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>21.01</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>89.72</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.9055</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>010922</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>朱雀匠心一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>22.44</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>85.26</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.8886</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001182</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>易方达安心回馈混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>40.35</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>39.47</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.6658</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>206002</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>鹏华精选成长混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>10.05</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>92.54</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.5628</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>007880</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>朱雀产业智选混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>10.01</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>91.14</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.5235</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>003961</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>易方达瑞程灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>18.85</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>91.14</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.5165</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>000457</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>上投摩根核心成长</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>17.07</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>88.70</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.5138</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>377010</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>上投摩根阿尔法混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>14.92</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>91.10</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.4551</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005682</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>财通资管消费精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>7.65</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>92.93</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.4322</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>519017</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>大成积极成长混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>10.63</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>79.62</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.4263</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>010142</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>朱雀企业优选股票C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>9.76</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>89.45</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.4109</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>007491</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>南方信息创新混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>90.43</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.3874</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>501095</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>8.70</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>75.64</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.3654</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>008244</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>上银鑫卓混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>8.83</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>79.57</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.2552</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>009640</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>中银证券优选行业龙头混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>91.47</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>8.33</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.2091</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>001809</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>中信建投智信物联网灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>94.98</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.2088</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>003882</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>易方达瑞弘灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>11.24</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>29.17</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.1989</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>010282</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>中信建投智享生活混合A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.1570</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>006976</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>鹏华核心优势混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.1411</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>003962</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>易方达瑞程灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>91.14</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.1359</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>008277</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>财通资管行业精选混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>89.95</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>7.27</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.1359</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>001322</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>东吴新趋势价值线灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>93.62</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>5.96</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.1305</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>008295</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>朱雀企业优胜股票C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>89.72</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.1134</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>501099</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>平安科技创新3年封闭运作灵活配置混合型</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>91.80</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.1095</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>007881</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>朱雀产业智选混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>91.14</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0915</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>960007</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>上投摩根新兴动力混合H</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>92.83</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0881</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>009557</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>申万菱信创业板量化精选股票A</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>92.12</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0861</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>010895</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>鹏华汇智优选混合C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>47.04</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0848</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>001364</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>大成景润灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>22.69</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0656</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>004636</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>中信建投智信物联网灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>94.98</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0627</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>000587</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>大成灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>85.68</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0506</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>160323</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>华夏磐泰混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>29.87</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0408</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>009641</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>中银证券优选行业龙头混合C</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>91.47</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>8.33</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0392</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>003147</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>大成动态量化配置策略混合</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>29.73</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0391</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>168104</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>九泰锐丰灵活配置混合（LOF）A</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>94.44</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0353</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>001323</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>东吴移动互联灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>93.58</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0346</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>167001</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>平安鼎泰灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>82.21</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0340</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>009169</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>湘财长兴灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>72.38</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0313</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>010491</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>鹏华高质量增长混合C</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>93.14</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0291</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>515870</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>嘉实中证先进制造100策略ETF</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>99.38</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0275</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>007439</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>东海科技动力混合A</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>83.15</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>8.17</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0221</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>010283</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>中信建投智享生活混合C</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0184</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>009170</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>湘财长兴灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>72.38</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0158</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>005983</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>上投摩根核心精选股票</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>81.03</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0143</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>003883</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>易方达瑞弘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>29.17</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0092</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>007463</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>东海科技动力混合C</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>83.15</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>8.17</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0090</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>167002</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>平安鼎越灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>81.96</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0085</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>011020</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>财通资管消费精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>92.93</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0068</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>010505</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>申万菱信创业板量化精选股票C</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>92.12</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>002170</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>东吴移动互联灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>93.58</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>168111</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>九泰锐丰灵活配置混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>94.44</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -6799,6 +4550,2404 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>185.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.7739</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.8635</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002351</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达裕祥回报债券</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>341.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.3105</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>377240</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>53.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.9866</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>61.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5887</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>39.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.4247</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>113.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>47.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7301</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>44.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5742</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3061</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1922</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1530</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9055</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8886</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>40.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>39.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6658</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5628</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5235</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5165</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5138</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14.92</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4551</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4322</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519017</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成积极成长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4263</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4109</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3874</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>501095</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>75.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3654</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008244</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上银鑫卓混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.57</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2552</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009640</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银证券优选行业龙头混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2091</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001809</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2088</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>29.17</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1989</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010282</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1570</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1411</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1359</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1359</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001322</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东吴新趋势价值线灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>501099</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>平安科技创新3年封闭运作灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>960007</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合H</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009557</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>47.04</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>22.69</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004636</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000587</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>大成灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>160323</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏磐泰混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009641</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中银证券优选行业龙头混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>168104</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>九泰锐丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001323</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>167001</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>平安鼎泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>82.21</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>72.38</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010283</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>72.38</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>81.03</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>29.17</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>167002</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>平安鼎越灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010505</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002170</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>168111</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>九泰锐丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>209.66</t>
         </is>
       </c>

--- a/数据整理/stocks/A股/创业板/300433-蓝思科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300433-蓝思科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>7.52</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>15.1</v>
+        <v>7.52</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>29.61</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D7" t="n">
-        <v>38.7</v>
+        <v>29.61</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>62</v>
       </c>
       <c r="D8" t="n">
+        <v>38.7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>62</v>
+      </c>
+      <c r="D9" t="n">
         <v>27.31</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,32 +673,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001724</t>
+          <t>015061</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>申万菱信多策略灵活配置混合C</t>
+          <t>中信建投沪深300指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>23.23</t>
+          <t>89.86</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0032</t>
+          <t>0.0220</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -694,36 +711,112 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001148</t>
+          <t>006227</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>申万菱信多策略灵活配置混合A</t>
+          <t>华宝科技先锋混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>23.23</t>
+          <t>90.42</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0009</t>
+          <t>0.0174</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>015062</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010842</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -788,36 +881,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011157</t>
+          <t>001724</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>弘毅远方港股通智选领航混合A</t>
+          <t>申万菱信多策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.19</t>
+          <t>23.23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1584</t>
+          <t>0.0032</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -826,36 +919,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011158</t>
+          <t>001148</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>弘毅远方港股通智选领航混合C</t>
+          <t>申万菱信多策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.19</t>
+          <t>23.23</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0341</t>
+          <t>0.0009</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -869,7 +962,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -920,36 +1013,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011531</t>
+          <t>011157</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>朱雀恒心一年持有期混合</t>
+          <t>弘毅远方港股通智选领航混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.24</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>90.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.2306</t>
+          <t>0.1584</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -958,758 +1051,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010922</t>
+          <t>011158</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>朱雀匠心一年持有期混合</t>
+          <t>弘毅远方港股通智选领航混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>25.58</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>90.19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7060</t>
+          <t>0.0341</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007494</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>朱雀产业臻选混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17.18</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6700</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010141</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>朱雀企业优选股票A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>18.55</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.28</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.6010</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009986</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>天弘创新领航混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>13.66</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5095</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>112002</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>易方达策略成长二号混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>11.77</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4308</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007493</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>朱雀产业臻选混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8.50</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3315</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008294</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>朱雀企业优胜股票A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.61</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3072</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
         <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010142</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>朱雀企业优选股票C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>6.61</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.28</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2142</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>007880</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>朱雀产业智选混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2116</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008295</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>朱雀企业优胜股票C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.61</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0983</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>159786</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>银华中证虚拟现实主题交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>97.45</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0636</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>007881</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>朱雀产业智选混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0379</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001135</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>益民品质升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>89.34</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0273</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009987</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>天弘创新领航混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0220</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>400023</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>东方多策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.35</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0183</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002068</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>东方多策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.35</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0172</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>161816</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>银华中证等权重90指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>92.47</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0113</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>008890</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中邮价值优选一年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>63.75</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0071</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>010999</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>兴华瑞丰混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>29.82</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>011000</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>兴华瑞丰混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>29.82</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1744,7 +1115,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1774,36 +1145,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007493</t>
+          <t>011531</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>朱雀产业臻选混合A</t>
+          <t>朱雀恒心一年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>64.63</t>
+          <t>90.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.51</t>
+          <t>93.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.0893</t>
+          <t>3.2306</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1812,36 +1183,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011531</t>
+          <t>010922</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>朱雀恒心一年持有期混合</t>
+          <t>朱雀匠心一年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>80.64</t>
+          <t>25.58</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.89</t>
+          <t>94.55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.9756</t>
+          <t>0.7060</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1850,36 +1221,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010141</t>
+          <t>007494</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>朱雀企业优选股票A</t>
+          <t>朱雀产业臻选混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>51.50</t>
+          <t>17.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.1012</t>
+          <t>0.6700</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1888,36 +1259,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007490</t>
+          <t>010141</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方信息创新混合A</t>
+          <t>朱雀企业优选股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>29.09</t>
+          <t>18.55</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.52</t>
+          <t>94.28</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.3323</t>
+          <t>0.6010</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1926,36 +1297,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010922</t>
+          <t>009986</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>朱雀匠心一年持有期混合</t>
+          <t>天弘创新领航混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>25.79</t>
+          <t>13.66</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>93.87</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.8898</t>
+          <t>0.5095</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1964,32 +1335,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007494</t>
+          <t>112002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>朱雀产业臻选混合C</t>
+          <t>易方达策略成长二号混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>18.22</t>
+          <t>11.77</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.51</t>
+          <t>93.99</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.8709</t>
+          <t>0.4308</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -2002,36 +1373,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>160607</t>
+          <t>007493</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鹏华价值优势混合(LOF)</t>
+          <t>朱雀产业臻选混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>18.29</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.62</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.8541</t>
+          <t>0.3315</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -2040,36 +1411,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010490</t>
+          <t>008294</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鹏华高质量增长混合A</t>
+          <t>朱雀企业优胜股票A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>17.35</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>93.61</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.7842</t>
+          <t>0.3072</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -2078,36 +1449,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008294</t>
+          <t>010142</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>朱雀企业优胜股票A</t>
+          <t>朱雀企业优选股票C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>17.45</t>
+          <t>6.61</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>94.28</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.7364</t>
+          <t>0.2142</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -2126,22 +1497,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7.19</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.11</t>
+          <t>93.51</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.3832</t>
+          <t>0.2116</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -2154,36 +1525,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>206002</t>
+          <t>008295</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>鹏华精选成长混合</t>
+          <t>朱雀企业优胜股票C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.53</t>
+          <t>93.61</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.2884</t>
+          <t>0.0983</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -2192,36 +1563,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010142</t>
+          <t>159786</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>朱雀企业优选股票C</t>
+          <t>银华中证虚拟现实主题交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>97.45</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.2868</t>
+          <t>0.0636</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -2230,36 +1601,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007491</t>
+          <t>007881</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>南方信息创新混合C</t>
+          <t>朱雀产业智选混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>91.52</t>
+          <t>93.51</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1630</t>
+          <t>0.0379</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -2268,36 +1639,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006976</t>
+          <t>001135</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鹏华核心优势混合</t>
+          <t>益民品质升级灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>89.34</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1544</t>
+          <t>0.0273</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -2306,36 +1677,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>008295</t>
+          <t>009987</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>朱雀企业优胜股票C</t>
+          <t>天弘创新领航混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>93.87</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0827</t>
+          <t>0.0220</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -2344,32 +1715,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>007881</t>
+          <t>400023</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>朱雀产业智选混合C</t>
+          <t>东方多策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>92.11</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0602</t>
+          <t>0.0183</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -2382,36 +1753,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>168104</t>
+          <t>002068</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>九泰锐丰灵活配置混合（LOF）A</t>
+          <t>东方多策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>81.31</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0285</t>
+          <t>0.0172</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -2420,36 +1791,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010491</t>
+          <t>161816</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>鹏华高质量增长混合C</t>
+          <t>银华中证等权重90指数（LOF）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>92.47</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0172</t>
+          <t>0.0113</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -2458,36 +1829,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>010999</t>
+          <t>008890</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>兴华瑞丰混合A</t>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>29.38</t>
+          <t>63.75</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0016</t>
+          <t>0.0071</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -2496,36 +1867,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>011000</t>
+          <t>010999</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>兴华瑞丰混合C</t>
+          <t>兴华瑞丰混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>29.38</t>
+          <t>29.82</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0011</t>
+          <t>0.0007</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2534,34 +1905,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>168111</t>
+          <t>011000</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>九泰锐丰灵活配置混合（LOF）C</t>
+          <t>兴华瑞丰混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>81.31</t>
+          <t>29.82</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2570,6 +1943,858 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>64.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0893</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>80.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9756</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>51.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1012</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3323</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8898</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8709</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8541</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7842</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7364</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3832</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2884</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2868</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1630</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1544</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>168104</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>九泰锐丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011000</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>168111</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>九泰锐丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4476,2404 +4701,6 @@
       </c>
       <c r="H50" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H63"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>515050</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏中证5G通信主题ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>185.08</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.97</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6.7739</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007493</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>朱雀产业臻选混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>77.58</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.09</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.8635</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002351</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达裕祥回报债券</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>341.29</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>20.12</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>3.3105</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>377240</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>上投摩根新兴动力混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>53.91</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.83</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.9866</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010141</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>朱雀企业优选股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>61.49</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.45</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2.5887</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007490</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>南方信息创新混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>39.49</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.43</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2.4247</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010894</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华汇智优选混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>113.82</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>47.04</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.7301</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>159994</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>银华中证5G通信主题ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>44.22</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>97.68</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.5742</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010490</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>鹏华高质量增长混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>25.56</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.14</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.3061</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>007494</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>朱雀产业臻选混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>23.94</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.09</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1.1922</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>160607</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>鹏华价值优势混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>20.85</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1.1530</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008294</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>朱雀企业优胜股票A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>21.01</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>89.72</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.9055</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>010922</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>朱雀匠心一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>22.44</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>85.26</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.8886</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001182</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>易方达安心回馈混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>40.35</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>39.47</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.6658</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>206002</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>鹏华精选成长混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>10.05</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>92.54</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.5628</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>007880</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>朱雀产业智选混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>10.01</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>91.14</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.5235</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>003961</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>易方达瑞程灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>18.85</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>91.14</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.5165</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>000457</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>上投摩根核心成长</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>17.07</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>88.70</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.5138</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>377010</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>上投摩根阿尔法混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>14.92</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>91.10</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.4551</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005682</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>财通资管消费精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>7.65</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>92.93</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.4322</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>519017</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>大成积极成长混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>10.63</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>79.62</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.4263</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>010142</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>朱雀企业优选股票C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>9.76</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>89.45</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.4109</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>007491</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>南方信息创新混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>90.43</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.3874</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>501095</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>8.70</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>75.64</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.3654</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>008244</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>上银鑫卓混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>8.83</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>79.57</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.2552</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>009640</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>中银证券优选行业龙头混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>91.47</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>8.33</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.2091</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>001809</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>中信建投智信物联网灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>94.98</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.2088</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>003882</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>易方达瑞弘灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>11.24</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>29.17</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.1989</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>010282</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>中信建投智享生活混合A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.1570</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>006976</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>鹏华核心优势混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.1411</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>003962</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>易方达瑞程灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>91.14</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.1359</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>008277</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>财通资管行业精选混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>89.95</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>7.27</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.1359</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>001322</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>东吴新趋势价值线灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>93.62</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>5.96</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.1305</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>008295</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>朱雀企业优胜股票C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>89.72</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.1134</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>501099</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>平安科技创新3年封闭运作灵活配置混合型</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>91.80</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.1095</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>007881</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>朱雀产业智选混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>91.14</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0915</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>960007</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>上投摩根新兴动力混合H</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>92.83</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0881</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>009557</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>申万菱信创业板量化精选股票A</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>92.12</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0861</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>010895</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>鹏华汇智优选混合C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>47.04</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0848</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>001364</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>大成景润灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>22.69</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0656</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>004636</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>中信建投智信物联网灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>94.98</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0627</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>000587</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>大成灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>85.68</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0506</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>160323</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>华夏磐泰混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>29.87</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0408</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>009641</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>中银证券优选行业龙头混合C</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>91.47</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>8.33</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0392</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>003147</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>大成动态量化配置策略混合</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>29.73</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0391</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>168104</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>九泰锐丰灵活配置混合（LOF）A</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>94.44</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0353</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>001323</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>东吴移动互联灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>93.58</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0346</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>167001</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>平安鼎泰灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>82.21</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0340</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>009169</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>湘财长兴灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>72.38</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0313</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>010491</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>鹏华高质量增长混合C</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>93.14</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0291</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>515870</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>嘉实中证先进制造100策略ETF</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>99.38</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0275</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>007439</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>东海科技动力混合A</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>83.15</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>8.17</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0221</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>010283</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>中信建投智享生活混合C</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0184</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>009170</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>湘财长兴灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>72.38</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0158</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>005983</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>上投摩根核心精选股票</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>81.03</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0143</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>003883</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>易方达瑞弘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>29.17</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0092</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>007463</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>东海科技动力混合C</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>83.15</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>8.17</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0090</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>167002</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>平安鼎越灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>81.96</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0085</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>011020</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>财通资管消费精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>92.93</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0068</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>010505</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>申万菱信创业板量化精选股票C</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>92.12</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>002170</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>东吴移动互联灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>93.58</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>168111</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>九泰锐丰灵活配置混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>94.44</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -6948,6 +4775,2404 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>185.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.7739</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.8635</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002351</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达裕祥回报债券</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>341.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.3105</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>377240</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>53.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.9866</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>61.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5887</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>39.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.4247</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>113.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>47.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7301</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>44.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5742</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3061</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1922</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1530</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9055</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8886</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>40.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>39.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6658</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5628</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5235</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5165</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5138</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14.92</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4551</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4322</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519017</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成积极成长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4263</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4109</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3874</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>501095</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>75.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3654</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008244</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上银鑫卓混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.57</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2552</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009640</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银证券优选行业龙头混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2091</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001809</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2088</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>29.17</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1989</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010282</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1570</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1411</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1359</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1359</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001322</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东吴新趋势价值线灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>501099</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>平安科技创新3年封闭运作灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>960007</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合H</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009557</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>47.04</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>22.69</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004636</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000587</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>大成灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>160323</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏磐泰混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009641</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中银证券优选行业龙头混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>168104</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>九泰锐丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001323</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>167001</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>平安鼎泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>82.21</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>72.38</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010283</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>72.38</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>81.03</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>29.17</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>167002</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>平安鼎越灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010505</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002170</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>168111</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>九泰锐丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>209.66</t>
         </is>
       </c>
